--- a/simulacoes/teste.xlsx
+++ b/simulacoes/teste.xlsx
@@ -5,26 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\desenv\fisica\flado-simulator\simulacoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\desenv\flado-simulator\simulacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FF7B18-19A4-428C-85E6-B4E6E137B4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EDC000-BAA8-43E0-9FA9-F93D843B5BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3360" yWindow="3684" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>D</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -237,73 +229,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17599999999999999</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.245</c:v>
+                  <c:v>0.22800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.36399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48899999999999999</c:v>
+                  <c:v>0.50800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58199999999999996</c:v>
+                  <c:v>0.57399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64400000000000002</c:v>
+                  <c:v>0.627</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.63800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68500000000000005</c:v>
+                  <c:v>0.67600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69199999999999995</c:v>
+                  <c:v>0.68200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.73899999999999999</c:v>
+                  <c:v>0.72299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72699999999999998</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.74299999999999999</c:v>
+                  <c:v>0.74099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.75600000000000001</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.78</c:v>
+                  <c:v>0.77400000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,7 +303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC08-4F9F-BA96-DA71859670CA}"/>
+              <c16:uniqueId val="{00000000-1790-408F-979C-D7DE417B3BD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -323,11 +315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="479981544"/>
-        <c:axId val="479983512"/>
+        <c:axId val="465973384"/>
+        <c:axId val="465973712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="479981544"/>
+        <c:axId val="465973384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,12 +376,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479983512"/>
+        <c:crossAx val="465973712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="479983512"/>
+        <c:axId val="465973712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,7 +438,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479981544"/>
+        <c:crossAx val="465973384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1062,23 +1054,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146BB9C6-A464-0980-C034-9ED75D86BE75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AA5FD3-F643-3327-BC85-ADB15404B5E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,201 +1412,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.4</v>
       </c>
       <c r="B2">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.7</v>
       </c>
       <c r="B5">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.9</v>
       </c>
       <c r="B7">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.2</v>
       </c>
       <c r="B10">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.3</v>
       </c>
       <c r="B11">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.4</v>
       </c>
       <c r="B12">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.5</v>
       </c>
       <c r="B13">
-        <v>0.58199999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.6</v>
       </c>
       <c r="B14">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.7</v>
       </c>
       <c r="B15">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.8</v>
       </c>
       <c r="B16">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.9</v>
       </c>
       <c r="B17">
-        <v>0.69199999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.73399999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.1</v>
       </c>
       <c r="B19">
-        <v>0.73899999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B20">
-        <v>0.72699999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.2999999999999998</v>
       </c>
       <c r="B21">
-        <v>0.74299999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2.4</v>
       </c>
       <c r="B22">
-        <v>0.75600000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
       <c r="B23">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="34" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S34" t="s">
-        <v>0</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/simulacoes/teste.xlsx
+++ b/simulacoes/teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\desenv\flado-simulator\simulacoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\desenv\fisica\flado-simulator\simulacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EDC000-BAA8-43E0-9FA9-F93D843B5BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0D84DE-4BBF-4389-B51C-3F8A1A30449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3360" yWindow="3684" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,73 +229,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.122</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14599999999999999</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.35199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.189</c:v>
+                  <c:v>0.40600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>0.45900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26200000000000001</c:v>
+                  <c:v>0.51200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36399999999999999</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44</c:v>
+                  <c:v>0.55400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.50800000000000001</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57399999999999995</c:v>
+                  <c:v>0.60899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.627</c:v>
+                  <c:v>0.61199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.63800000000000001</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67600000000000005</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.68200000000000005</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70399999999999996</c:v>
+                  <c:v>0.70599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.72299999999999998</c:v>
+                  <c:v>0.72899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.73199999999999998</c:v>
+                  <c:v>0.76500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.74099999999999999</c:v>
+                  <c:v>0.755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.75800000000000001</c:v>
+                  <c:v>0.754</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.77400000000000002</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,7 +303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1790-408F-979C-D7DE417B3BD9}"/>
+              <c16:uniqueId val="{00000000-4EDA-454F-8310-2BB49D8037AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -315,11 +315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="465973384"/>
-        <c:axId val="465973712"/>
+        <c:axId val="480864104"/>
+        <c:axId val="480866400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="465973384"/>
+        <c:axId val="480864104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,12 +376,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465973712"/>
+        <c:crossAx val="480866400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465973712"/>
+        <c:axId val="480866400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,7 +438,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465973384"/>
+        <c:crossAx val="480864104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1054,23 +1054,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AA5FD3-F643-3327-BC85-ADB15404B5E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A65E489-06BB-5DD3-634D-CB92C69D9218}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,190 +1418,190 @@
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.4</v>
       </c>
       <c r="B2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.7</v>
       </c>
       <c r="B5">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.9</v>
       </c>
       <c r="B7">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.26200000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.2</v>
       </c>
       <c r="B10">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.3</v>
       </c>
       <c r="B11">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4</v>
       </c>
       <c r="B12">
-        <v>0.50800000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.5</v>
       </c>
       <c r="B13">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.6</v>
       </c>
       <c r="B14">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.7</v>
       </c>
       <c r="B15">
-        <v>0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.8</v>
       </c>
       <c r="B16">
-        <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.9</v>
       </c>
       <c r="B17">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.70399999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.1</v>
       </c>
       <c r="B19">
-        <v>0.72299999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B20">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.2999999999999998</v>
       </c>
       <c r="B21">
-        <v>0.74099999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.4</v>
       </c>
       <c r="B22">
-        <v>0.75800000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.5</v>
       </c>
       <c r="B23">
-        <v>0.77400000000000002</v>
+        <v>0.79500000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/simulacoes/teste.xlsx
+++ b/simulacoes/teste.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\desenv\flado-simulator\simulacoes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E087A0C-B72C-4A98-82E3-0226C372A986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,7 +58,1037 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>9.3749999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8125000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9374999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5625000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17812500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.234375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25937500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34687499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47187499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50312500000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.515625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54374999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.57187500000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58437499999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60624999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-620E-4DFB-8AA5-6B38FA10EBF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="479882776"/>
+        <c:axId val="479880808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="479882776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479880808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="479880808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479882776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7340CD-DF87-F4D0-3ADE-21840288C2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +1134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +1166,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +1218,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,198 +1411,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>0.009375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9.3749999999999997E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.4</v>
       </c>
       <c r="B2">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2.8125000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>0.01875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5.9374999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>0.028125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>6.5625000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.7</v>
       </c>
       <c r="B5">
-        <v>0.115625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.17812500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>0.175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.9</v>
       </c>
       <c r="B7">
-        <v>0.21875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.20625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.25937500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.228125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.34687499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.2</v>
       </c>
       <c r="B10">
-        <v>0.265625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.3</v>
       </c>
       <c r="B11">
-        <v>0.325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.4</v>
       </c>
       <c r="B12">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.41875000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.5</v>
       </c>
       <c r="B13">
-        <v>0.38125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.41875000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.6</v>
       </c>
       <c r="B14">
-        <v>0.36875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.7</v>
       </c>
       <c r="B15">
-        <v>0.421875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.47187499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.8</v>
       </c>
       <c r="B16">
-        <v>0.403125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.50312500000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.9</v>
       </c>
       <c r="B17">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.4625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.1</v>
       </c>
       <c r="B19">
-        <v>0.4875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.54374999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B20">
-        <v>0.484375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.55625000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B21">
-        <v>0.496875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.57187500000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2.4</v>
       </c>
       <c r="B22">
-        <v>0.503125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.58437499999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
       <c r="B23">
-        <v>0.49375</v>
+        <v>0.60624999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>